--- a/data/trans_orig/P25D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65371DCF-8537-459A-8D4E-E805B67D8F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DA14F1-A4F2-4F8E-8FC1-7DC38FF95172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99CBCF59-10F9-44FA-A117-1C081287AFEC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCA21A92-0EE7-48A3-B6F9-D6ABDE1986B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
   <si>
     <t>Población que fuma diariamente cigarrillos electrónicos en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,99%</t>
+    <t>4,35%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,32%</t>
+    <t>1,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>96,01%</t>
+    <t>95,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,7 +113,7 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>97,68%</t>
+    <t>98,04%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -122,217 +122,211 @@
     <t>0,63%</t>
   </si>
   <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -341,27 +335,30 @@
     <t>0,47%</t>
   </si>
   <si>
+    <t>1,06%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
+    <t>98,94%</t>
+  </si>
+  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
   </si>
   <si>
     <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -786,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE00DE85-07FA-42BF-94BF-F95131C873E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2DA07-EBC7-4583-8916-6E06F6808EB2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1086,7 +1080,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1095,13 +1089,13 @@
         <v>4936</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1116,10 +1110,10 @@
         <v>545153</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -1131,13 +1125,13 @@
         <v>589524</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>1599</v>
@@ -1146,13 +1140,13 @@
         <v>1134677</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1208,7 +1202,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1220,13 +1214,13 @@
         <v>8777</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -1235,13 +1229,13 @@
         <v>9902</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -1250,13 +1244,13 @@
         <v>18679</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1271,13 +1265,13 @@
         <v>1030471</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>1505</v>
@@ -1286,10 +1280,10 @@
         <v>1048946</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>56</v>
@@ -1566,7 +1560,7 @@
         <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,13 +1575,13 @@
         <v>940281</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>1545</v>
@@ -1596,13 +1590,13 @@
         <v>1138629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>2529</v>
@@ -1611,13 +1605,13 @@
         <v>2078910</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,13 +1679,13 @@
         <v>39382</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -1700,13 +1694,13 @@
         <v>26722</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -1715,13 +1709,13 @@
         <v>66103</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,16 +1727,16 @@
         <v>3336</v>
       </c>
       <c r="D20" s="7">
-        <v>3335829</v>
+        <v>3335828</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>5323</v>
@@ -1751,13 +1745,13 @@
         <v>3774089</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>8659</v>
@@ -1766,13 +1760,13 @@
         <v>7109919</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,7 +1778,7 @@
         <v>3366</v>
       </c>
       <c r="D21" s="7">
-        <v>3375211</v>
+        <v>3375210</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -1828,7 +1822,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DA14F1-A4F2-4F8E-8FC1-7DC38FF95172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B379CCB-4064-45BA-B855-D1B56A5D4E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCA21A92-0EE7-48A3-B6F9-D6ABDE1986B1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A430D929-6C09-48F8-94C1-5E0EC7C84DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -116,7 +116,7 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -161,7 +161,7 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -218,7 +218,7 @@
     <t>99,5%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2DA07-EBC7-4583-8916-6E06F6808EB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED27F0B-15BA-46FA-86BC-2DD1B5592F3C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B379CCB-4064-45BA-B855-D1B56A5D4E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15F7E06-1741-42A2-9889-106815150C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A430D929-6C09-48F8-94C1-5E0EC7C84DA7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D22B6686-1AE5-4523-8350-0B33ABBB9AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
   <si>
     <t>Población que fuma diariamente cigarrillos electrónicos en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,35%</t>
+    <t>3,99%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>2,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,65%</t>
+    <t>96,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,7 +113,7 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>97,68%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -122,7 +122,7 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -131,31 +131,37 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>97,96%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
+    <t>99,25%</t>
+  </si>
+  <si>
     <t>99,93%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>98,86%</t>
+    <t>98,79%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -170,22 +176,19 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>0,45%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>1,49%</t>
@@ -194,7 +197,7 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,37%</t>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -203,10 +206,7 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>99,55%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -215,7 +215,7 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>99,5%</t>
+    <t>99,47%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -224,55 +224,55 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -281,34 +281,37 @@
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,12%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -317,16 +320,19 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -335,30 +341,27 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
     <t>0,92%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>1,23%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -366,6 +369,9 @@
   </si>
   <si>
     <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -780,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED27F0B-15BA-46FA-86BC-2DD1B5592F3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C4B6F5-F84F-4C47-BC84-C57D4F2E8C21}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1080,7 +1086,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1089,13 +1095,13 @@
         <v>4936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1110,10 +1116,10 @@
         <v>545153</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -1125,13 +1131,13 @@
         <v>589524</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>1599</v>
@@ -1140,13 +1146,13 @@
         <v>1134677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1202,7 +1208,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1214,13 +1220,13 @@
         <v>8777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -1229,13 +1235,13 @@
         <v>9902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -1244,13 +1250,13 @@
         <v>18679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,13 +1271,13 @@
         <v>1030471</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>1505</v>
@@ -1280,10 +1286,10 @@
         <v>1048946</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>56</v>
@@ -1560,7 +1566,7 @@
         <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,13 +1581,13 @@
         <v>940281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>1545</v>
@@ -1590,13 +1596,13 @@
         <v>1138629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>2529</v>
@@ -1605,13 +1611,13 @@
         <v>2078910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1685,13 @@
         <v>39382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -1694,13 +1700,13 @@
         <v>26722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -1709,13 +1715,13 @@
         <v>66103</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,16 +1733,16 @@
         <v>3336</v>
       </c>
       <c r="D20" s="7">
-        <v>3335828</v>
+        <v>3335829</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>5323</v>
@@ -1745,13 +1751,13 @@
         <v>3774089</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>8659</v>
@@ -1760,13 +1766,13 @@
         <v>7109919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,7 +1784,7 @@
         <v>3366</v>
       </c>
       <c r="D21" s="7">
-        <v>3375210</v>
+        <v>3375211</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -1822,7 +1828,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15F7E06-1741-42A2-9889-106815150C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B75AE3A-9A4D-4E44-B3F8-5F1ABA43496F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D22B6686-1AE5-4523-8350-0B33ABBB9AA2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5D96E880-D549-4B20-885D-0B47F4DBDE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>Población que fuma diariamente cigarrillos electrónicos en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -65,313 +65,247 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -786,8 +720,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C4B6F5-F84F-4C47-BC84-C57D4F2E8C21}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83653DB-8F4F-4FE5-8010-08DB7E3249CE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -904,10 +838,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>907</v>
+        <v>4286</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -919,85 +853,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>907</v>
+        <v>5750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>725</v>
       </c>
       <c r="D5" s="7">
-        <v>99998</v>
+        <v>628872</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>243</v>
+        <v>1233</v>
       </c>
       <c r="I5" s="7">
-        <v>130733</v>
+        <v>672487</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>359</v>
+        <v>1958</v>
       </c>
       <c r="N5" s="7">
-        <v>230731</v>
+        <v>1301359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1006,153 +940,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>728</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>633158</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>673951</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1964</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1307109</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>3446</v>
+        <v>7800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>1490</v>
+        <v>8732</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>4936</v>
+        <v>16532</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>609</v>
+        <v>958</v>
       </c>
       <c r="D8" s="7">
-        <v>545153</v>
+        <v>1185064</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>990</v>
+        <v>1505</v>
       </c>
       <c r="I8" s="7">
-        <v>589524</v>
+        <v>948795</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>1599</v>
+        <v>2463</v>
       </c>
       <c r="N8" s="7">
-        <v>1134677</v>
+        <v>2133859</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,54 +1095,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>548599</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>993</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>591014</v>
+        <v>957527</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1604</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1139613</v>
+        <v>2150391</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1217,97 +1151,97 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>8777</v>
+        <v>8608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>9902</v>
+        <v>7031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>18679</v>
+        <v>15640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>958</v>
+        <v>669</v>
       </c>
       <c r="D11" s="7">
-        <v>1030471</v>
+        <v>695908</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>1505</v>
+        <v>1040</v>
       </c>
       <c r="I11" s="7">
-        <v>1048946</v>
+        <v>926335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
-        <v>2463</v>
+        <v>1709</v>
       </c>
       <c r="N11" s="7">
-        <v>2079417</v>
+        <v>1622241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,153 +1250,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704516</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1058848</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="7">
-        <v>2098096</v>
+        <v>1637881</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>8686</v>
+        <v>16717</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>8113</v>
+        <v>6513</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>16799</v>
+        <v>23230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>669</v>
+        <v>984</v>
       </c>
       <c r="D14" s="7">
-        <v>719926</v>
+        <v>903044</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>1040</v>
+        <v>1545</v>
       </c>
       <c r="I14" s="7">
-        <v>866258</v>
+        <v>1084153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>1709</v>
+        <v>2529</v>
       </c>
       <c r="N14" s="7">
-        <v>1586184</v>
+        <v>1987197</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,153 +1405,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>999</v>
       </c>
       <c r="D15" s="7">
-        <v>728612</v>
+        <v>919761</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1556</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1090666</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>2555</v>
       </c>
       <c r="N15" s="7">
-        <v>1602983</v>
+        <v>2010427</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>17566</v>
+        <v>37411</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <v>23740</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7217</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>61</v>
+      </c>
+      <c r="N16" s="7">
+        <v>61151</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="7">
-        <v>26</v>
-      </c>
-      <c r="N16" s="7">
-        <v>24783</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>984</v>
+        <v>3336</v>
       </c>
       <c r="D17" s="7">
-        <v>940281</v>
+        <v>3412888</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5323</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3631770</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8659</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7044657</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1545</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1138629</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2529</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2078910</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,217 +1560,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>999</v>
+        <v>3366</v>
       </c>
       <c r="D18" s="7">
-        <v>957847</v>
+        <v>3450299</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1556</v>
+        <v>5354</v>
       </c>
       <c r="I18" s="7">
-        <v>1145846</v>
+        <v>3655510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2555</v>
+        <v>8720</v>
       </c>
       <c r="N18" s="7">
-        <v>2103693</v>
+        <v>7105808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>39382</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="7">
-        <v>31</v>
-      </c>
-      <c r="I19" s="7">
-        <v>26722</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="7">
-        <v>61</v>
-      </c>
-      <c r="N19" s="7">
-        <v>66103</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3336</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3335829</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5323</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3774089</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8659</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7109919</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3366</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3375211</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5354</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3800811</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8720</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7176022</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
